--- a/Wyniki 3/S1/S1-REST.xlsx
+++ b/Wyniki 3/S1/S1-REST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\S1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A28732-5EDA-423F-B1DC-5AFF6F04E7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21264B8C-D399-45B9-ABE8-0D9859F43842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 rekord" sheetId="1" r:id="rId1"/>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E7:J38"/>
+  <dimension ref="E7:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +485,7 @@
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
@@ -494,7 +494,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E9" s="3">
         <v>100</v>
       </c>
@@ -527,12 +527,8 @@
       <c r="I9" s="1">
         <v>1.07</v>
       </c>
-      <c r="J9">
-        <f>AVERAGE(G9:I9)</f>
-        <v>1.0733333333333335</v>
-      </c>
-    </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E10" s="3"/>
       <c r="F10" s="1" t="s">
         <v>2</v>
@@ -546,12 +542,8 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="J10">
-        <f t="shared" ref="J10:J38" si="0">AVERAGE(G10:I10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E11" s="3"/>
       <c r="F11" s="1" t="s">
         <v>3</v>
@@ -565,12 +557,8 @@
       <c r="I11" s="1">
         <v>144.94999999999999</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>144.63666666666666</v>
-      </c>
-    </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E12" s="3"/>
       <c r="F12" s="1" t="s">
         <v>4</v>
@@ -584,12 +572,8 @@
       <c r="I12" s="1">
         <v>1.7</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>1.6900000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E13" s="3"/>
       <c r="F13" s="1" t="s">
         <v>5</v>
@@ -603,12 +587,8 @@
       <c r="I13" s="1">
         <v>2.04</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>2.0066666666666664</v>
-      </c>
-    </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E14" s="3"/>
       <c r="F14" s="1" t="s">
         <v>6</v>
@@ -622,12 +602,8 @@
       <c r="I14" s="1">
         <v>83991</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>83990.666666666672</v>
-      </c>
-    </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E15" s="3"/>
       <c r="F15" s="1" t="s">
         <v>7</v>
@@ -641,12 +617,8 @@
       <c r="I15" s="1">
         <v>964</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>963.66666666666663</v>
-      </c>
-    </row>
-    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E16" s="3"/>
       <c r="F16" s="1" t="s">
         <v>8</v>
@@ -660,12 +632,8 @@
       <c r="I16" s="1">
         <v>87.46</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>87.456666666666663</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E17" s="3"/>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -679,12 +647,8 @@
       <c r="I17" s="1">
         <v>48</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E18" s="3"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -698,12 +662,8 @@
       <c r="I18" s="1">
         <v>7.7</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="0"/>
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E19" s="4">
         <v>1000</v>
       </c>
@@ -719,12 +679,8 @@
       <c r="I19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E20" s="4"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
@@ -738,12 +694,8 @@
       <c r="I20" s="2">
         <v>0</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E21" s="4"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
@@ -757,12 +709,8 @@
       <c r="I21" s="2">
         <v>39.97</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="0"/>
-        <v>112.76333333333332</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E22" s="4"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
@@ -776,12 +724,8 @@
       <c r="I22" s="2">
         <v>1.06</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="0"/>
-        <v>1.0566666666666669</v>
-      </c>
-    </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E23" s="4"/>
       <c r="F23" s="2" t="s">
         <v>5</v>
@@ -795,12 +739,8 @@
       <c r="I23" s="2">
         <v>1.18</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="0"/>
-        <v>1.1933333333333334</v>
-      </c>
-    </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E24" s="4"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
@@ -814,12 +754,8 @@
       <c r="I24" s="2">
         <v>839742</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="0"/>
-        <v>839744.66666666663</v>
-      </c>
-    </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="4"/>
       <c r="F25" s="2" t="s">
         <v>7</v>
@@ -833,12 +769,8 @@
       <c r="I25" s="2">
         <v>961</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="0"/>
-        <v>961</v>
-      </c>
-    </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E26" s="4"/>
       <c r="F26" s="2" t="s">
         <v>8</v>
@@ -852,12 +784,8 @@
       <c r="I26" s="2">
         <v>873.86</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="0"/>
-        <v>873.85333333333335</v>
-      </c>
-    </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E27" s="4"/>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -871,12 +799,8 @@
       <c r="I27" s="2">
         <v>477</v>
       </c>
-      <c r="J27">
-        <f t="shared" si="0"/>
-        <v>477</v>
-      </c>
-    </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E28" s="4"/>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -890,12 +814,8 @@
       <c r="I28" s="2">
         <v>77</v>
       </c>
-      <c r="J28">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E29" s="3">
         <v>4000</v>
       </c>
@@ -911,12 +831,8 @@
       <c r="I29" s="1">
         <v>3.14</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="0"/>
-        <v>3.0866666666666664</v>
-      </c>
-    </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E30" s="3"/>
       <c r="F30" s="1" t="s">
         <v>2</v>
@@ -930,12 +846,8 @@
       <c r="I30" s="1">
         <v>0</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E31" s="3"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
@@ -949,12 +861,8 @@
       <c r="I31" s="1">
         <v>67.72</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="0"/>
-        <v>87.923333333333332</v>
-      </c>
-    </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E32" s="3"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
@@ -968,12 +876,8 @@
       <c r="I32" s="1">
         <v>6.32</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="0"/>
-        <v>6.2733333333333334</v>
-      </c>
-    </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E33" s="3"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
@@ -987,12 +891,8 @@
       <c r="I33" s="1">
         <v>8.66</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="0"/>
-        <v>8.5533333333333328</v>
-      </c>
-    </row>
-    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E34" s="3"/>
       <c r="F34" s="1" t="s">
         <v>6</v>
@@ -1006,12 +906,8 @@
       <c r="I34" s="1">
         <v>3350455</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="0"/>
-        <v>3350638.3333333335</v>
-      </c>
-    </row>
-    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E35" s="3"/>
       <c r="F35" s="1" t="s">
         <v>7</v>
@@ -1025,12 +921,8 @@
       <c r="I35" s="1">
         <v>960.5</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="0"/>
-        <v>960.66666666666663</v>
-      </c>
-    </row>
-    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E36" s="3"/>
       <c r="F36" s="1" t="s">
         <v>8</v>
@@ -1044,12 +936,8 @@
       <c r="I36" s="1">
         <v>3488.28</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="0"/>
-        <v>3487.9166666666665</v>
-      </c>
-    </row>
-    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E37" s="3"/>
       <c r="F37" s="1" t="s">
         <v>9</v>
@@ -1063,12 +951,8 @@
       <c r="I37" s="1">
         <v>1945.6</v>
       </c>
-      <c r="J37">
-        <f t="shared" si="0"/>
-        <v>1945.5999999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E38" s="3"/>
       <c r="F38" s="1" t="s">
         <v>10</v>
@@ -1080,10 +964,6 @@
         <v>308</v>
       </c>
       <c r="I38" s="1">
-        <v>308</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="0"/>
         <v>308</v>
       </c>
     </row>
@@ -1103,7 +983,7 @@
   <dimension ref="E7:I38"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:I7"/>
+      <selection activeCell="J8" sqref="J8:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,14 +1429,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008BA1D-A9B8-490D-8D36-2848B9455033}">
   <dimension ref="E7:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="5:9" x14ac:dyDescent="0.25">
@@ -1710,7 +1590,7 @@
     <row r="17" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E17" s="3"/>
       <c r="F17" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G17" s="1">
         <v>14</v>

--- a/Wyniki 3/S1/S1-REST.xlsx
+++ b/Wyniki 3/S1/S1-REST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\S1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21264B8C-D399-45B9-ABE8-0D9859F43842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2759E7-5A6E-4F8F-B5C4-21F5EDFA58B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 rekord" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E7:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
@@ -1429,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008BA1D-A9B8-490D-8D36-2848B9455033}">
   <dimension ref="E7:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J38"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Wyniki 3/S1/S1-REST.xlsx
+++ b/Wyniki 3/S1/S1-REST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kacpe\OneDrive\Pulpit\Projekty\Praca magisterska\Wyniki 3\S1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2759E7-5A6E-4F8F-B5C4-21F5EDFA58B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CD7F47-5912-4CDD-B9B8-9786ED587065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-2340" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 rekord" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="39">
   <si>
     <t>Maksymalna liczba użytkowników</t>
   </si>
@@ -122,6 +122,39 @@
   </si>
   <si>
     <t>Pobieranie REST - 500 rekord</t>
+  </si>
+  <si>
+    <t>37GB</t>
+  </si>
+  <si>
+    <t>113MB</t>
+  </si>
+  <si>
+    <t>112MB</t>
+  </si>
+  <si>
+    <t>52GB</t>
+  </si>
+  <si>
+    <t>32MB</t>
+  </si>
+  <si>
+    <t>53GB</t>
+  </si>
+  <si>
+    <t>33MB</t>
+  </si>
+  <si>
+    <t>954MB</t>
+  </si>
+  <si>
+    <t>155MB</t>
+  </si>
+  <si>
+    <t>154MB</t>
+  </si>
+  <si>
+    <t>955MB</t>
   </si>
 </sst>
 </file>
@@ -151,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -174,11 +207,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -190,6 +249,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -472,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E7:I38"/>
+  <dimension ref="E7:Q48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +701,7 @@
         <v>87.46</v>
       </c>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E17" s="3"/>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -648,7 +716,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E18" s="3"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -663,7 +731,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E19" s="4">
         <v>1000</v>
       </c>
@@ -680,7 +748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E20" s="4"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
@@ -695,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E21" s="4"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
@@ -710,7 +778,7 @@
         <v>39.97</v>
       </c>
     </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E22" s="4"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
@@ -725,7 +793,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E23" s="4"/>
       <c r="F23" s="2" t="s">
         <v>5</v>
@@ -740,7 +808,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E24" s="4"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
@@ -755,7 +823,7 @@
         <v>839742</v>
       </c>
     </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E25" s="4"/>
       <c r="F25" s="2" t="s">
         <v>7</v>
@@ -770,7 +838,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E26" s="4"/>
       <c r="F26" s="2" t="s">
         <v>8</v>
@@ -785,7 +853,7 @@
         <v>873.86</v>
       </c>
     </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E27" s="4"/>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -800,39 +868,64 @@
         <v>477</v>
       </c>
     </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E28" s="4"/>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="6">
         <v>77</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="6">
         <v>77</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="6">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E29" s="3">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>3.02</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="H29" s="1">
-        <v>3.1</v>
+        <v>1.18</v>
       </c>
       <c r="I29" s="1">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.25">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="J29" s="7">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="M29" s="7">
+        <v>1.22</v>
+      </c>
+      <c r="N29" s="7">
+        <v>1.04</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="P29" s="7">
+        <v>1.06</v>
+      </c>
+      <c r="Q29">
+        <f>AVERAGE(G29:P29)</f>
+        <v>1.0037</v>
+      </c>
+    </row>
+    <row r="30" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E30" s="3"/>
       <c r="F30" s="1" t="s">
         <v>2</v>
@@ -846,133 +939,511 @@
       <c r="I30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0</v>
+      </c>
+      <c r="P30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ref="Q30:Q38" si="0">AVERAGE(G30:P30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E31" s="3"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="1">
-        <v>56.97</v>
+        <v>154.19</v>
       </c>
       <c r="H31" s="1">
-        <v>139.08000000000001</v>
+        <v>61.05</v>
       </c>
       <c r="I31" s="1">
-        <v>67.72</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.25">
+        <v>64.67</v>
+      </c>
+      <c r="J31" s="7">
+        <v>57.15</v>
+      </c>
+      <c r="K31" s="7">
+        <v>72.760000000000005</v>
+      </c>
+      <c r="L31" s="7">
+        <v>171.6</v>
+      </c>
+      <c r="M31" s="7">
+        <v>80.97</v>
+      </c>
+      <c r="N31" s="7">
+        <v>70.709999999999994</v>
+      </c>
+      <c r="O31" s="7">
+        <v>166.86</v>
+      </c>
+      <c r="P31" s="7">
+        <v>154.05000000000001</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>105.401</v>
+      </c>
+    </row>
+    <row r="32" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E32" s="3"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="1">
-        <v>6.2</v>
+        <v>1.73</v>
       </c>
       <c r="H32" s="1">
-        <v>6.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I32" s="1">
-        <v>6.32</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
+        <v>1.73</v>
+      </c>
+      <c r="J32" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="K32" s="7">
+        <v>1.54</v>
+      </c>
+      <c r="L32" s="7">
+        <v>1.54</v>
+      </c>
+      <c r="M32" s="7">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2.04</v>
+      </c>
+      <c r="O32" s="7">
+        <v>1.53</v>
+      </c>
+      <c r="P32" s="7">
+        <v>2.06</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>1.9419999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E33" s="3"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="1">
-        <v>8.26</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H33" s="1">
-        <v>8.74</v>
+        <v>3.16</v>
       </c>
       <c r="I33" s="1">
-        <v>8.66</v>
-      </c>
-    </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
+        <v>2.54</v>
+      </c>
+      <c r="J33" s="7">
+        <v>3.11</v>
+      </c>
+      <c r="K33" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="L33" s="7">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="M33" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="N33" s="7">
+        <v>2.64</v>
+      </c>
+      <c r="O33" s="7">
+        <v>1.92</v>
+      </c>
+      <c r="P33" s="7">
+        <v>2.81</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>2.5779999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E34" s="3"/>
       <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G34" s="1">
-        <v>3350870</v>
+        <v>1678943</v>
       </c>
       <c r="H34" s="1">
-        <v>3350590</v>
+        <v>1678599</v>
       </c>
       <c r="I34" s="1">
-        <v>3350455</v>
-      </c>
-    </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
+        <v>1678837</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1678593</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1679137</v>
+      </c>
+      <c r="L34" s="7">
+        <v>1679113</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1678512</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1678641</v>
+      </c>
+      <c r="O34" s="7">
+        <v>1679149</v>
+      </c>
+      <c r="P34" s="7">
+        <v>1678742</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>1678826.6</v>
+      </c>
+    </row>
+    <row r="35" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E35" s="3"/>
       <c r="F35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G35" s="1">
-        <v>961</v>
+        <v>960.6</v>
       </c>
       <c r="H35" s="1">
-        <v>960.5</v>
+        <v>960.6</v>
       </c>
       <c r="I35" s="1">
         <v>960.5</v>
       </c>
-    </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="7">
+        <v>960.6</v>
+      </c>
+      <c r="K35" s="7">
+        <v>960.5</v>
+      </c>
+      <c r="L35" s="7">
+        <v>960.5</v>
+      </c>
+      <c r="M35" s="7">
+        <v>960.7</v>
+      </c>
+      <c r="N35" s="7">
+        <v>960.6</v>
+      </c>
+      <c r="O35" s="7">
+        <v>960.5</v>
+      </c>
+      <c r="P35" s="7">
+        <v>960.5</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>960.55999999999983</v>
+      </c>
+    </row>
+    <row r="36" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E36" s="3"/>
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="1">
-        <v>3486.98</v>
+        <v>1747.8</v>
       </c>
       <c r="H36" s="1">
-        <v>3488.49</v>
+        <v>1747.39</v>
       </c>
       <c r="I36" s="1">
-        <v>3488.28</v>
-      </c>
-    </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
+        <v>1747.89</v>
+      </c>
+      <c r="J36" s="7">
+        <v>1747.4</v>
+      </c>
+      <c r="K36" s="7">
+        <v>1748.16</v>
+      </c>
+      <c r="L36" s="7">
+        <v>1748.15</v>
+      </c>
+      <c r="M36" s="7">
+        <v>1747.18</v>
+      </c>
+      <c r="N36" s="7">
+        <v>1747.47</v>
+      </c>
+      <c r="O36" s="7">
+        <v>1748.2</v>
+      </c>
+      <c r="P36" s="7">
+        <v>1747.81</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>1747.7450000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E37" s="3"/>
       <c r="F37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="1">
-        <v>1945.6</v>
-      </c>
-      <c r="H37" s="1">
-        <v>1945.6</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1945.6</v>
-      </c>
-    </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E38" s="3"/>
       <c r="F38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E39" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5">
+        <v>3.02</v>
+      </c>
+      <c r="H39" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="I39" s="5">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="40" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E40" s="3"/>
+      <c r="F40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E41" s="3"/>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="2">
+        <v>56.97</v>
+      </c>
+      <c r="H41" s="2">
+        <v>139.08000000000001</v>
+      </c>
+      <c r="I41" s="2">
+        <v>67.72</v>
+      </c>
+    </row>
+    <row r="42" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E42" s="3"/>
+      <c r="F42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="H42" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="I42" s="2">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="43" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E43" s="3"/>
+      <c r="F43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>8.26</v>
+      </c>
+      <c r="H43" s="2">
+        <v>8.74</v>
+      </c>
+      <c r="I43" s="2">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="44" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E44" s="3"/>
+      <c r="F44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="2">
+        <v>3350870</v>
+      </c>
+      <c r="H44" s="2">
+        <v>3350590</v>
+      </c>
+      <c r="I44" s="2">
+        <v>3350455</v>
+      </c>
+    </row>
+    <row r="45" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E45" s="3"/>
+      <c r="F45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="2">
+        <v>961</v>
+      </c>
+      <c r="H45" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="I45" s="2">
+        <v>960.5</v>
+      </c>
+    </row>
+    <row r="46" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E46" s="3"/>
+      <c r="F46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="2">
+        <v>3486.98</v>
+      </c>
+      <c r="H46" s="2">
+        <v>3488.49</v>
+      </c>
+      <c r="I46" s="2">
+        <v>3488.28</v>
+      </c>
+    </row>
+    <row r="47" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E47" s="3"/>
+      <c r="F47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1945.6</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1945.6</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1945.6</v>
+      </c>
+    </row>
+    <row r="48" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E48" s="3"/>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2">
         <v>308</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H48" s="2">
         <v>308</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I48" s="2">
         <v>308</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="E9:E18"/>
     <mergeCell ref="E19:E28"/>
     <mergeCell ref="E29:E38"/>
+    <mergeCell ref="E39:E48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -980,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4FD128-804F-4FC8-966B-DED231E7146F}">
-  <dimension ref="E7:I38"/>
+  <dimension ref="E7:Q48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J38"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,7 +1595,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E17" s="3"/>
       <c r="F17" s="1" t="s">
         <v>20</v>
@@ -1137,7 +1608,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E18" s="3"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -1150,7 +1621,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E19" s="4">
         <v>1000</v>
       </c>
@@ -1165,7 +1636,7 @@
       </c>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E20" s="4"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
@@ -1178,7 +1649,7 @@
       </c>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E21" s="4"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
@@ -1191,7 +1662,7 @@
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E22" s="4"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
@@ -1204,7 +1675,7 @@
       </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E23" s="4"/>
       <c r="F23" s="2" t="s">
         <v>5</v>
@@ -1217,7 +1688,7 @@
       </c>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E24" s="4"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
@@ -1230,7 +1701,7 @@
       </c>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E25" s="4"/>
       <c r="F25" s="2" t="s">
         <v>7</v>
@@ -1243,7 +1714,7 @@
       </c>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E26" s="4"/>
       <c r="F26" s="2" t="s">
         <v>8</v>
@@ -1256,7 +1727,7 @@
       </c>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E27" s="4"/>
       <c r="F27" s="2" t="s">
         <v>20</v>
@@ -1269,35 +1740,62 @@
       </c>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E28" s="4"/>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="6">
         <v>87</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="6">
         <v>87</v>
       </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E29" s="3">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>1430</v>
+        <v>533.69000000000005</v>
       </c>
       <c r="H29" s="1">
-        <v>1440</v>
-      </c>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.25">
+        <v>547.01</v>
+      </c>
+      <c r="I29" s="1">
+        <v>538.97</v>
+      </c>
+      <c r="J29" s="7">
+        <v>540.66</v>
+      </c>
+      <c r="K29" s="7">
+        <v>530.86</v>
+      </c>
+      <c r="L29" s="7">
+        <v>530.07000000000005</v>
+      </c>
+      <c r="M29" s="7">
+        <v>527.04999999999995</v>
+      </c>
+      <c r="N29" s="7">
+        <v>533.11</v>
+      </c>
+      <c r="O29" s="7">
+        <v>531.12</v>
+      </c>
+      <c r="P29" s="7">
+        <v>530.19000000000005</v>
+      </c>
+      <c r="Q29">
+        <f>AVERAGE(G29:P29)</f>
+        <v>534.27299999999991</v>
+      </c>
+    </row>
+    <row r="30" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E30" s="3"/>
       <c r="F30" s="1" t="s">
         <v>2</v>
@@ -1308,118 +1806,494 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0</v>
+      </c>
+      <c r="P30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ref="Q30:Q38" si="0">AVERAGE(G30:P30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E31" s="3"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="1">
-        <v>1810</v>
+        <v>736.43</v>
       </c>
       <c r="H31" s="1">
-        <v>1800</v>
-      </c>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.25">
+        <v>790.25</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1070</v>
+      </c>
+      <c r="J31" s="7">
+        <v>764.66</v>
+      </c>
+      <c r="K31" s="7">
+        <v>747.59</v>
+      </c>
+      <c r="L31" s="7">
+        <v>770.11</v>
+      </c>
+      <c r="M31" s="7">
+        <v>748.66</v>
+      </c>
+      <c r="N31" s="7">
+        <v>716.65</v>
+      </c>
+      <c r="O31" s="7">
+        <v>750.61</v>
+      </c>
+      <c r="P31" s="7">
+        <v>728.61</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>782.35699999999974</v>
+      </c>
+    </row>
+    <row r="32" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E32" s="3"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="1">
-        <v>1.67</v>
+        <v>637.74</v>
       </c>
       <c r="H32" s="1">
-        <v>1.67</v>
-      </c>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
+        <v>653.1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>643.98</v>
+      </c>
+      <c r="J32" s="7">
+        <v>646.34</v>
+      </c>
+      <c r="K32" s="7">
+        <v>633.87</v>
+      </c>
+      <c r="L32" s="7">
+        <v>634.44000000000005</v>
+      </c>
+      <c r="M32" s="7">
+        <v>629.33000000000004</v>
+      </c>
+      <c r="N32" s="7">
+        <v>636.29999999999995</v>
+      </c>
+      <c r="O32" s="7">
+        <v>635.51</v>
+      </c>
+      <c r="P32" s="7">
+        <v>633.65</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>638.42600000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E33" s="3"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="1">
-        <v>1.68</v>
+        <v>646.45000000000005</v>
       </c>
       <c r="H33" s="1">
-        <v>1680</v>
-      </c>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
+        <v>663.01</v>
+      </c>
+      <c r="I33" s="1">
+        <v>655.02</v>
+      </c>
+      <c r="J33" s="7">
+        <v>655.88</v>
+      </c>
+      <c r="K33" s="7">
+        <v>642.92999999999995</v>
+      </c>
+      <c r="L33" s="7">
+        <v>645.09</v>
+      </c>
+      <c r="M33" s="7">
+        <v>637.61</v>
+      </c>
+      <c r="N33" s="7">
+        <v>644.30999999999995</v>
+      </c>
+      <c r="O33" s="7">
+        <v>646.91999999999996</v>
+      </c>
+      <c r="P33" s="7">
+        <v>643.03</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>648.02499999999986</v>
+      </c>
+    </row>
+    <row r="34" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E34" s="3"/>
       <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G34" s="1">
-        <v>1381224</v>
+        <v>1095937</v>
       </c>
       <c r="H34" s="1">
-        <v>1376520</v>
-      </c>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
+        <v>1086512</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1092195</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1090998</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1097981</v>
+      </c>
+      <c r="L34" s="7">
+        <v>1098518</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1100716</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1096349</v>
+      </c>
+      <c r="O34" s="7">
+        <v>1097774</v>
+      </c>
+      <c r="P34" s="7">
+        <v>1098440</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>1095542</v>
+      </c>
+    </row>
+    <row r="35" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E35" s="3"/>
       <c r="F35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G35" s="1">
-        <v>960.5</v>
+        <v>960.7</v>
       </c>
       <c r="H35" s="1">
         <v>960.6</v>
       </c>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="1">
+        <v>960.7</v>
+      </c>
+      <c r="J35" s="7">
+        <v>960.5</v>
+      </c>
+      <c r="K35" s="7">
+        <v>960.7</v>
+      </c>
+      <c r="L35" s="7">
+        <v>960.5</v>
+      </c>
+      <c r="M35" s="7">
+        <v>960.4</v>
+      </c>
+      <c r="N35" s="7">
+        <v>960.6</v>
+      </c>
+      <c r="O35" s="7">
+        <v>960.7</v>
+      </c>
+      <c r="P35" s="7">
+        <v>960.6</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>960.6</v>
+      </c>
+    </row>
+    <row r="36" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E36" s="3"/>
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="1">
-        <v>1437.99</v>
+        <v>1140.73</v>
       </c>
       <c r="H36" s="1">
-        <v>1432.98</v>
-      </c>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
+        <v>1131.0999999999999</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1136.93</v>
+      </c>
+      <c r="J36" s="7">
+        <v>1135.8599999999999</v>
+      </c>
+      <c r="K36" s="7">
+        <v>1142.93</v>
+      </c>
+      <c r="L36" s="7">
+        <v>1143.6300000000001</v>
+      </c>
+      <c r="M36" s="7">
+        <v>1146.1099999999999</v>
+      </c>
+      <c r="N36" s="7">
+        <v>1141.32</v>
+      </c>
+      <c r="O36" s="7">
+        <v>1142.67</v>
+      </c>
+      <c r="P36" s="7">
+        <v>1143.53</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>1140.4810000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E37" s="3"/>
       <c r="F37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="1">
-        <v>46</v>
-      </c>
-      <c r="H37" s="1">
-        <v>46</v>
-      </c>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E38" s="3"/>
       <c r="F38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E39" s="4">
+        <v>4000</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1430</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1440</v>
+      </c>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E40" s="4"/>
+      <c r="F40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E41" s="4"/>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1810</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1800</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E42" s="4"/>
+      <c r="F42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E43" s="4"/>
+      <c r="F43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1680</v>
+      </c>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E44" s="4"/>
+      <c r="F44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1381224</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1376520</v>
+      </c>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E45" s="4"/>
+      <c r="F45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="2">
+        <v>960.5</v>
+      </c>
+      <c r="H45" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E46" s="4"/>
+      <c r="F46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1437.99</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1432.98</v>
+      </c>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E47" s="4"/>
+      <c r="F47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="2">
+        <v>46</v>
+      </c>
+      <c r="H47" s="2">
+        <v>46</v>
+      </c>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E48" s="4"/>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2">
         <v>142</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H48" s="2">
         <v>142</v>
       </c>
-      <c r="I38" s="1"/>
+      <c r="I48" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="E9:E18"/>
     <mergeCell ref="E19:E28"/>
     <mergeCell ref="E29:E38"/>
+    <mergeCell ref="E39:E48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1427,10 +2301,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5008BA1D-A9B8-490D-8D36-2848B9455033}">
-  <dimension ref="E7:I38"/>
+  <dimension ref="E7:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,7 +2461,7 @@
         <v>87.29</v>
       </c>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E17" s="3"/>
       <c r="F17" s="1" t="s">
         <v>20</v>
@@ -1602,7 +2476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E18" s="3"/>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -1617,7 +2491,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E19" s="4">
         <v>1000</v>
       </c>
@@ -1634,7 +2508,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E20" s="4"/>
       <c r="F20" s="2" t="s">
         <v>2</v>
@@ -1649,7 +2523,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E21" s="4"/>
       <c r="F21" s="2" t="s">
         <v>3</v>
@@ -1664,7 +2538,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E22" s="4"/>
       <c r="F22" s="2" t="s">
         <v>4</v>
@@ -1679,7 +2553,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E23" s="4"/>
       <c r="F23" s="2" t="s">
         <v>5</v>
@@ -1694,7 +2568,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E24" s="4"/>
       <c r="F24" s="2" t="s">
         <v>6</v>
@@ -1709,7 +2583,7 @@
         <v>311956</v>
       </c>
     </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E25" s="4"/>
       <c r="F25" s="2" t="s">
         <v>7</v>
@@ -1724,7 +2598,7 @@
         <v>960.6</v>
       </c>
     </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E26" s="4"/>
       <c r="F26" s="2" t="s">
         <v>8</v>
@@ -1739,7 +2613,7 @@
         <v>324.76</v>
       </c>
     </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E27" s="4"/>
       <c r="F27" s="2" t="s">
         <v>20</v>
@@ -1754,159 +2628,562 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E28" s="4"/>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="6">
         <v>32</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="6">
         <v>33</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="6">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E29" s="3">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>8610</v>
+        <v>4370</v>
       </c>
       <c r="H29" s="1">
-        <v>8600</v>
-      </c>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.25">
+        <v>4360</v>
+      </c>
+      <c r="I29" s="1">
+        <v>4360</v>
+      </c>
+      <c r="J29" s="7">
+        <v>4360</v>
+      </c>
+      <c r="K29" s="7">
+        <v>4350</v>
+      </c>
+      <c r="L29" s="7">
+        <v>4400</v>
+      </c>
+      <c r="M29" s="7">
+        <v>4330</v>
+      </c>
+      <c r="N29" s="7">
+        <v>4360</v>
+      </c>
+      <c r="O29" s="7">
+        <v>4310</v>
+      </c>
+      <c r="P29" s="7">
+        <v>4320</v>
+      </c>
+      <c r="Q29">
+        <f>AVERAGE(G29:P29)</f>
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="30" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E30" s="3"/>
       <c r="F30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0</v>
+      </c>
+      <c r="P30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ref="Q30:Q38" si="0">AVERAGE(G30:P30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E31" s="3"/>
       <c r="F31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G31" s="1">
-        <v>10950</v>
+        <v>5380</v>
       </c>
       <c r="H31" s="1">
-        <v>10320</v>
-      </c>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.25">
+        <v>5340</v>
+      </c>
+      <c r="I31" s="1">
+        <v>5260</v>
+      </c>
+      <c r="J31" s="7">
+        <v>5280</v>
+      </c>
+      <c r="K31" s="7">
+        <v>5430</v>
+      </c>
+      <c r="L31" s="7">
+        <v>7140</v>
+      </c>
+      <c r="M31" s="7">
+        <v>5450</v>
+      </c>
+      <c r="N31" s="7">
+        <v>6870</v>
+      </c>
+      <c r="O31" s="7">
+        <v>5400</v>
+      </c>
+      <c r="P31" s="7">
+        <v>5210</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>5676</v>
+      </c>
+    </row>
+    <row r="32" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E32" s="3"/>
       <c r="F32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="1">
-        <v>9850</v>
+        <v>5030</v>
       </c>
       <c r="H32" s="1">
-        <v>9880</v>
-      </c>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
+        <v>5030</v>
+      </c>
+      <c r="I32" s="1">
+        <v>5020</v>
+      </c>
+      <c r="J32" s="7">
+        <v>5030</v>
+      </c>
+      <c r="K32" s="7">
+        <v>5010</v>
+      </c>
+      <c r="L32" s="7">
+        <v>5040</v>
+      </c>
+      <c r="M32" s="7">
+        <v>5030</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5030</v>
+      </c>
+      <c r="O32" s="7">
+        <v>4970</v>
+      </c>
+      <c r="P32" s="7">
+        <v>4970</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>5016</v>
+      </c>
+    </row>
+    <row r="33" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E33" s="3"/>
       <c r="F33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="1">
-        <v>9900</v>
+        <v>5050</v>
       </c>
       <c r="H33" s="1">
-        <v>9910</v>
-      </c>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
+        <v>5050</v>
+      </c>
+      <c r="I33" s="1">
+        <v>5040</v>
+      </c>
+      <c r="J33" s="7">
+        <v>5050</v>
+      </c>
+      <c r="K33" s="7">
+        <v>5030</v>
+      </c>
+      <c r="L33" s="7">
+        <v>5080</v>
+      </c>
+      <c r="M33" s="7">
+        <v>5050</v>
+      </c>
+      <c r="N33" s="7">
+        <v>5060</v>
+      </c>
+      <c r="O33" s="7">
+        <v>5000</v>
+      </c>
+      <c r="P33" s="7">
+        <v>4990</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="34" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E34" s="3"/>
       <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G34" s="1">
-        <v>350700</v>
+        <v>313262</v>
       </c>
       <c r="H34" s="1">
-        <v>350945</v>
-      </c>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
+        <v>313449</v>
+      </c>
+      <c r="I34" s="1">
+        <v>313899</v>
+      </c>
+      <c r="J34" s="7">
+        <v>313573</v>
+      </c>
+      <c r="K34" s="7">
+        <v>314206</v>
+      </c>
+      <c r="L34" s="7">
+        <v>311358</v>
+      </c>
+      <c r="M34" s="7">
+        <v>315638</v>
+      </c>
+      <c r="N34" s="7">
+        <v>313864</v>
+      </c>
+      <c r="O34" s="7">
+        <v>316384</v>
+      </c>
+      <c r="P34" s="7">
+        <v>316238</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="0"/>
+        <v>314187.09999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E35" s="3"/>
       <c r="F35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G35" s="1">
+        <v>960.8</v>
+      </c>
+      <c r="H35" s="1">
         <v>960.6</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
+        <v>960.5</v>
+      </c>
+      <c r="J35" s="7">
+        <v>960.6</v>
+      </c>
+      <c r="K35" s="7">
+        <v>961</v>
+      </c>
+      <c r="L35" s="7">
+        <v>960.7</v>
+      </c>
+      <c r="M35" s="7">
+        <v>960.9</v>
+      </c>
+      <c r="N35" s="7">
+        <v>960.9</v>
+      </c>
+      <c r="O35" s="7">
         <v>960.8</v>
       </c>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="P35" s="7">
+        <v>960.8</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="0"/>
+        <v>960.75999999999988</v>
+      </c>
+    </row>
+    <row r="36" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E36" s="3"/>
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="1">
-        <v>365.1</v>
+        <v>326.06</v>
       </c>
       <c r="H36" s="1">
-        <v>365.27</v>
-      </c>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
+        <v>326.3</v>
+      </c>
+      <c r="I36" s="1">
+        <v>326.82</v>
+      </c>
+      <c r="J36" s="7">
+        <v>326.44</v>
+      </c>
+      <c r="K36" s="7">
+        <v>326.95999999999998</v>
+      </c>
+      <c r="L36" s="7">
+        <v>324.11</v>
+      </c>
+      <c r="M36" s="7">
+        <v>328.47</v>
+      </c>
+      <c r="N36" s="7">
+        <v>326.62</v>
+      </c>
+      <c r="O36" s="7">
+        <v>329.3</v>
+      </c>
+      <c r="P36" s="7">
+        <v>329.13</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="0"/>
+        <v>327.02100000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E37" s="3"/>
       <c r="F37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="1">
-        <v>58</v>
-      </c>
-      <c r="H37" s="1">
-        <v>59</v>
-      </c>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="5:17" x14ac:dyDescent="0.25">
       <c r="E38" s="3"/>
       <c r="F38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E39" s="4">
+        <v>4000</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5">
+        <v>8610</v>
+      </c>
+      <c r="H39" s="5">
+        <v>8600</v>
+      </c>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E40" s="4"/>
+      <c r="F40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E41" s="4"/>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="2">
+        <v>10950</v>
+      </c>
+      <c r="H41" s="2">
+        <v>10320</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E42" s="4"/>
+      <c r="F42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="2">
+        <v>9850</v>
+      </c>
+      <c r="H42" s="2">
+        <v>9880</v>
+      </c>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E43" s="4"/>
+      <c r="F43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2">
+        <v>9900</v>
+      </c>
+      <c r="H43" s="2">
+        <v>9910</v>
+      </c>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E44" s="4"/>
+      <c r="F44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="2">
+        <v>350700</v>
+      </c>
+      <c r="H44" s="2">
+        <v>350945</v>
+      </c>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E45" s="4"/>
+      <c r="F45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="2">
+        <v>960.6</v>
+      </c>
+      <c r="H45" s="2">
+        <v>960.8</v>
+      </c>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E46" s="4"/>
+      <c r="F46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="2">
+        <v>365.1</v>
+      </c>
+      <c r="H46" s="2">
+        <v>365.27</v>
+      </c>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E47" s="4"/>
+      <c r="F47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="2">
+        <v>58</v>
+      </c>
+      <c r="H47" s="2">
+        <v>59</v>
+      </c>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E48" s="4"/>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2">
         <v>36</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H48" s="2">
         <v>36</v>
       </c>
-      <c r="I38" s="1"/>
+      <c r="I48" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="E9:E18"/>
     <mergeCell ref="E19:E28"/>
     <mergeCell ref="E29:E38"/>
+    <mergeCell ref="E39:E48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
